--- a/input_spreadsheets/Tanzania/regions/InputForCode_Tanga.xlsx
+++ b/input_spreadsheets/Tanzania/regions/InputForCode_Tanga.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/regions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3949E9B-8C84-2540-86F3-0C7DD6045C10}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{05F1A498-4466-574F-8FF4-E3AFABB3E6C4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" firstSheet="30" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenditure &amp; budget" sheetId="47" r:id="rId1"/>
@@ -4287,7 +4287,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="274">
   <si>
     <t>year</t>
   </si>
@@ -6590,13 +6590,13 @@
     <xf numFmtId="2" fontId="38" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="38" fillId="2" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="739" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="739" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="739" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="740">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
@@ -8964,38 +8964,38 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="160" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" style="160" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="160"/>
+    <col min="1" max="1" width="17.5" style="159" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="159" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="159"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="158" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="159" t="s">
+      <c r="B1" s="158" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="158" t="s">
         <v>272</v>
       </c>
-      <c r="B2" s="162">
+      <c r="B2" s="161">
         <v>378379.0459090909</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="158" t="s">
         <v>273</v>
       </c>
-      <c r="B3" s="161"/>
+      <c r="B3" s="160"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14113,7 +14113,7 @@
       <c r="A2" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="162" t="s">
         <v>72</v>
       </c>
       <c r="C2" t="s">
@@ -14136,7 +14136,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="158"/>
+      <c r="B3" s="162"/>
       <c r="C3" t="s">
         <v>150</v>
       </c>
@@ -14158,7 +14158,7 @@
       <c r="J3" s="33"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="158"/>
+      <c r="B4" s="162"/>
       <c r="C4" t="s">
         <v>160</v>
       </c>
@@ -14180,7 +14180,7 @@
       <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="158" t="s">
+      <c r="B5" s="162" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
@@ -14203,7 +14203,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="158"/>
+      <c r="B6" s="162"/>
       <c r="C6" t="s">
         <v>150</v>
       </c>
@@ -14224,7 +14224,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="158"/>
+      <c r="B7" s="162"/>
       <c r="C7" t="s">
         <v>160</v>
       </c>
@@ -14245,7 +14245,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="158" t="s">
+      <c r="B8" s="162" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
@@ -14268,7 +14268,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="158"/>
+      <c r="B9" s="162"/>
       <c r="C9" t="s">
         <v>150</v>
       </c>
@@ -14289,7 +14289,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="158"/>
+      <c r="B10" s="162"/>
       <c r="C10" t="s">
         <v>160</v>
       </c>
@@ -14310,7 +14310,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="158" t="s">
+      <c r="B11" s="162" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
@@ -14333,7 +14333,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="158"/>
+      <c r="B12" s="162"/>
       <c r="C12" t="s">
         <v>150</v>
       </c>
@@ -14354,7 +14354,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="158"/>
+      <c r="B13" s="162"/>
       <c r="C13" t="s">
         <v>160</v>
       </c>
@@ -14375,7 +14375,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="158" t="s">
+      <c r="B14" s="162" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
@@ -14398,7 +14398,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="158"/>
+      <c r="B15" s="162"/>
       <c r="C15" t="s">
         <v>150</v>
       </c>
@@ -14419,7 +14419,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="158"/>
+      <c r="B16" s="162"/>
       <c r="C16" t="s">
         <v>160</v>
       </c>
@@ -14473,7 +14473,7 @@
       <c r="A19" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="B19" s="158" t="s">
+      <c r="B19" s="162" t="s">
         <v>72</v>
       </c>
       <c r="C19" t="s">
@@ -14496,7 +14496,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="158"/>
+      <c r="B20" s="162"/>
       <c r="C20" t="s">
         <v>150</v>
       </c>
@@ -14517,7 +14517,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="158"/>
+      <c r="B21" s="162"/>
       <c r="C21" t="s">
         <v>160</v>
       </c>
@@ -14538,7 +14538,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="158" t="s">
+      <c r="B22" s="162" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
@@ -14561,7 +14561,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="158"/>
+      <c r="B23" s="162"/>
       <c r="C23" t="s">
         <v>150</v>
       </c>
@@ -14582,7 +14582,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="158"/>
+      <c r="B24" s="162"/>
       <c r="C24" t="s">
         <v>160</v>
       </c>
@@ -14603,7 +14603,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="158" t="s">
+      <c r="B25" s="162" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
@@ -14626,7 +14626,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="158"/>
+      <c r="B26" s="162"/>
       <c r="C26" t="s">
         <v>150</v>
       </c>
@@ -14647,7 +14647,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="158"/>
+      <c r="B27" s="162"/>
       <c r="C27" t="s">
         <v>160</v>
       </c>
@@ -14668,7 +14668,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="158" t="s">
+      <c r="B28" s="162" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
@@ -14691,7 +14691,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="158"/>
+      <c r="B29" s="162"/>
       <c r="C29" t="s">
         <v>150</v>
       </c>
@@ -14712,7 +14712,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="158"/>
+      <c r="B30" s="162"/>
       <c r="C30" t="s">
         <v>160</v>
       </c>
@@ -14733,7 +14733,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="158" t="s">
+      <c r="B31" s="162" t="s">
         <v>9</v>
       </c>
       <c r="C31" t="s">
@@ -14756,7 +14756,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="158"/>
+      <c r="B32" s="162"/>
       <c r="C32" t="s">
         <v>150</v>
       </c>
@@ -14777,7 +14777,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B33" s="158"/>
+      <c r="B33" s="162"/>
       <c r="C33" t="s">
         <v>160</v>
       </c>
@@ -14824,7 +14824,7 @@
       <c r="A36" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B36" s="158" t="s">
+      <c r="B36" s="162" t="s">
         <v>72</v>
       </c>
       <c r="C36" t="s">
@@ -14847,7 +14847,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B37" s="158"/>
+      <c r="B37" s="162"/>
       <c r="C37" t="s">
         <v>150</v>
       </c>
@@ -14868,7 +14868,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="158"/>
+      <c r="B38" s="162"/>
       <c r="C38" t="s">
         <v>160</v>
       </c>
@@ -14890,7 +14890,7 @@
       <c r="I38" s="33"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B39" s="158" t="s">
+      <c r="B39" s="162" t="s">
         <v>6</v>
       </c>
       <c r="C39" t="s">
@@ -14913,7 +14913,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B40" s="158"/>
+      <c r="B40" s="162"/>
       <c r="C40" t="s">
         <v>150</v>
       </c>
@@ -14934,7 +14934,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B41" s="158"/>
+      <c r="B41" s="162"/>
       <c r="C41" t="s">
         <v>160</v>
       </c>
@@ -14955,7 +14955,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B42" s="158" t="s">
+      <c r="B42" s="162" t="s">
         <v>7</v>
       </c>
       <c r="C42" t="s">
@@ -14978,7 +14978,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B43" s="158"/>
+      <c r="B43" s="162"/>
       <c r="C43" t="s">
         <v>150</v>
       </c>
@@ -14999,7 +14999,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B44" s="158"/>
+      <c r="B44" s="162"/>
       <c r="C44" t="s">
         <v>160</v>
       </c>
@@ -15020,7 +15020,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B45" s="158" t="s">
+      <c r="B45" s="162" t="s">
         <v>8</v>
       </c>
       <c r="C45" t="s">
@@ -15043,7 +15043,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B46" s="158"/>
+      <c r="B46" s="162"/>
       <c r="C46" t="s">
         <v>150</v>
       </c>
@@ -15064,7 +15064,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B47" s="158"/>
+      <c r="B47" s="162"/>
       <c r="C47" t="s">
         <v>160</v>
       </c>
@@ -15085,7 +15085,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B48" s="158" t="s">
+      <c r="B48" s="162" t="s">
         <v>9</v>
       </c>
       <c r="C48" t="s">
@@ -15108,7 +15108,7 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B49" s="158"/>
+      <c r="B49" s="162"/>
       <c r="C49" t="s">
         <v>150</v>
       </c>
@@ -15129,7 +15129,7 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B50" s="158"/>
+      <c r="B50" s="162"/>
       <c r="C50" t="s">
         <v>160</v>
       </c>
@@ -15174,6 +15174,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -15184,11 +15189,6 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -27946,8 +27946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -28195,9 +28195,7 @@
       <c r="A39" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B39" s="85" t="s">
-        <v>161</v>
-      </c>
+      <c r="B39" s="85"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">

--- a/input_spreadsheets/Tanzania/regions/InputForCode_Tanga.xlsx
+++ b/input_spreadsheets/Tanzania/regions/InputForCode_Tanga.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/regions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{05F1A498-4466-574F-8FF4-E3AFABB3E6C4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{22A1287C-AA66-224F-BB00-DD2FF2F360BF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" firstSheet="30" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" firstSheet="27" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenditure &amp; budget" sheetId="47" r:id="rId1"/>
@@ -64,7 +64,7 @@
     <definedName name="PWPop">'[1]Baseline year demographics'!$C$44:$C$47</definedName>
     <definedName name="WRAPop">'[1]Baseline year demographics'!$C$32:$C$35</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -4287,7 +4287,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="274">
   <si>
     <t>year</t>
   </si>
@@ -15174,11 +15174,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -15189,6 +15184,11 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -25455,8 +25455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -25558,7 +25558,7 @@
         <v>141</v>
       </c>
       <c r="B7" s="114">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="C7" s="131">
         <v>0.95</v>
@@ -27946,8 +27946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -28118,7 +28118,9 @@
       <c r="A26" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="85"/>
+      <c r="B26" s="85" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">

--- a/input_spreadsheets/Tanzania/regions/InputForCode_Tanga.xlsx
+++ b/input_spreadsheets/Tanzania/regions/InputForCode_Tanga.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/regions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{7B001346-4C97-C943-8545-16D6C1D207C6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{AF3C7072-12D8-FF41-B7EE-28A9F12CE170}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" firstSheet="28" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" firstSheet="28" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenditure &amp; budget" sheetId="47" r:id="rId1"/>
@@ -6305,7 +6305,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6522,7 +6522,6 @@
     <xf numFmtId="10" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="31" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -8936,32 +8935,32 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="158" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" style="158" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="158"/>
+    <col min="1" max="1" width="17.5" style="157" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="157" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="157"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="157" t="s">
+      <c r="A1" s="156" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="157" t="s">
+      <c r="B1" s="156" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="157" t="s">
+      <c r="A2" s="156" t="s">
         <v>272</v>
       </c>
-      <c r="B2" s="160">
+      <c r="B2" s="159">
         <v>378379.0459090909</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="157" t="s">
+      <c r="A3" s="156" t="s">
         <v>273</v>
       </c>
-      <c r="B3" s="159"/>
+      <c r="B3" s="158"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9015,17 +9014,17 @@
       <c r="B2" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="132">
+      <c r="C2" s="131">
         <f>1-D2-E2-F2</f>
         <v>0.686174418604651</v>
       </c>
-      <c r="D2" s="133">
+      <c r="D2" s="132">
         <v>0.18268313953488374</v>
       </c>
-      <c r="E2" s="133">
+      <c r="E2" s="132">
         <v>0.11006802325581397</v>
       </c>
-      <c r="F2" s="133">
+      <c r="F2" s="132">
         <v>2.1074418604651163E-2</v>
       </c>
     </row>
@@ -13910,25 +13909,25 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="161" t="s">
+      <c r="A18" s="160" t="s">
         <v>233</v>
       </c>
-      <c r="B18" s="162" t="s">
+      <c r="B18" s="161" t="s">
         <v>274</v>
       </c>
-      <c r="C18" s="163">
+      <c r="C18" s="162">
         <v>1.5</v>
       </c>
-      <c r="D18" s="163">
+      <c r="D18" s="162">
         <v>1.39</v>
       </c>
-      <c r="E18" s="162">
-        <v>1</v>
-      </c>
-      <c r="F18" s="162">
-        <v>1</v>
-      </c>
-      <c r="G18" s="162">
+      <c r="E18" s="161">
+        <v>1</v>
+      </c>
+      <c r="F18" s="161">
+        <v>1</v>
+      </c>
+      <c r="G18" s="161">
         <v>1</v>
       </c>
     </row>
@@ -14059,7 +14058,7 @@
       <c r="A2" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="165" t="s">
         <v>72</v>
       </c>
       <c r="C2" t="s">
@@ -14082,7 +14081,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="166"/>
+      <c r="B3" s="165"/>
       <c r="C3" t="s">
         <v>150</v>
       </c>
@@ -14104,7 +14103,7 @@
       <c r="J3" s="33"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="166"/>
+      <c r="B4" s="165"/>
       <c r="C4" t="s">
         <v>160</v>
       </c>
@@ -14126,7 +14125,7 @@
       <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="166" t="s">
+      <c r="B5" s="165" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
@@ -14149,7 +14148,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="166"/>
+      <c r="B6" s="165"/>
       <c r="C6" t="s">
         <v>150</v>
       </c>
@@ -14170,7 +14169,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="166"/>
+      <c r="B7" s="165"/>
       <c r="C7" t="s">
         <v>160</v>
       </c>
@@ -14191,7 +14190,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="166" t="s">
+      <c r="B8" s="165" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
@@ -14214,7 +14213,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="166"/>
+      <c r="B9" s="165"/>
       <c r="C9" t="s">
         <v>150</v>
       </c>
@@ -14235,7 +14234,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="166"/>
+      <c r="B10" s="165"/>
       <c r="C10" t="s">
         <v>160</v>
       </c>
@@ -14256,7 +14255,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="166" t="s">
+      <c r="B11" s="165" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
@@ -14279,7 +14278,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="166"/>
+      <c r="B12" s="165"/>
       <c r="C12" t="s">
         <v>150</v>
       </c>
@@ -14300,7 +14299,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="166"/>
+      <c r="B13" s="165"/>
       <c r="C13" t="s">
         <v>160</v>
       </c>
@@ -14321,7 +14320,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="166" t="s">
+      <c r="B14" s="165" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
@@ -14344,7 +14343,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="166"/>
+      <c r="B15" s="165"/>
       <c r="C15" t="s">
         <v>150</v>
       </c>
@@ -14365,7 +14364,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="166"/>
+      <c r="B16" s="165"/>
       <c r="C16" t="s">
         <v>160</v>
       </c>
@@ -14419,7 +14418,7 @@
       <c r="A19" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="B19" s="166" t="s">
+      <c r="B19" s="165" t="s">
         <v>72</v>
       </c>
       <c r="C19" t="s">
@@ -14442,7 +14441,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="166"/>
+      <c r="B20" s="165"/>
       <c r="C20" t="s">
         <v>150</v>
       </c>
@@ -14463,7 +14462,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="166"/>
+      <c r="B21" s="165"/>
       <c r="C21" t="s">
         <v>160</v>
       </c>
@@ -14484,7 +14483,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="166" t="s">
+      <c r="B22" s="165" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
@@ -14507,7 +14506,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="166"/>
+      <c r="B23" s="165"/>
       <c r="C23" t="s">
         <v>150</v>
       </c>
@@ -14528,7 +14527,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="166"/>
+      <c r="B24" s="165"/>
       <c r="C24" t="s">
         <v>160</v>
       </c>
@@ -14549,7 +14548,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="166" t="s">
+      <c r="B25" s="165" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
@@ -14572,7 +14571,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="166"/>
+      <c r="B26" s="165"/>
       <c r="C26" t="s">
         <v>150</v>
       </c>
@@ -14593,7 +14592,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="166"/>
+      <c r="B27" s="165"/>
       <c r="C27" t="s">
         <v>160</v>
       </c>
@@ -14614,7 +14613,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="166" t="s">
+      <c r="B28" s="165" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
@@ -14637,7 +14636,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="166"/>
+      <c r="B29" s="165"/>
       <c r="C29" t="s">
         <v>150</v>
       </c>
@@ -14658,7 +14657,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="166"/>
+      <c r="B30" s="165"/>
       <c r="C30" t="s">
         <v>160</v>
       </c>
@@ -14679,7 +14678,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="166" t="s">
+      <c r="B31" s="165" t="s">
         <v>9</v>
       </c>
       <c r="C31" t="s">
@@ -14702,7 +14701,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="166"/>
+      <c r="B32" s="165"/>
       <c r="C32" t="s">
         <v>150</v>
       </c>
@@ -14723,7 +14722,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B33" s="166"/>
+      <c r="B33" s="165"/>
       <c r="C33" t="s">
         <v>160</v>
       </c>
@@ -14770,7 +14769,7 @@
       <c r="A36" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B36" s="166" t="s">
+      <c r="B36" s="165" t="s">
         <v>72</v>
       </c>
       <c r="C36" t="s">
@@ -14793,7 +14792,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B37" s="166"/>
+      <c r="B37" s="165"/>
       <c r="C37" t="s">
         <v>150</v>
       </c>
@@ -14814,7 +14813,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="166"/>
+      <c r="B38" s="165"/>
       <c r="C38" t="s">
         <v>160</v>
       </c>
@@ -14836,7 +14835,7 @@
       <c r="I38" s="33"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B39" s="166" t="s">
+      <c r="B39" s="165" t="s">
         <v>6</v>
       </c>
       <c r="C39" t="s">
@@ -14859,7 +14858,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B40" s="166"/>
+      <c r="B40" s="165"/>
       <c r="C40" t="s">
         <v>150</v>
       </c>
@@ -14880,7 +14879,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B41" s="166"/>
+      <c r="B41" s="165"/>
       <c r="C41" t="s">
         <v>160</v>
       </c>
@@ -14901,7 +14900,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B42" s="166" t="s">
+      <c r="B42" s="165" t="s">
         <v>7</v>
       </c>
       <c r="C42" t="s">
@@ -14924,7 +14923,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B43" s="166"/>
+      <c r="B43" s="165"/>
       <c r="C43" t="s">
         <v>150</v>
       </c>
@@ -14945,7 +14944,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B44" s="166"/>
+      <c r="B44" s="165"/>
       <c r="C44" t="s">
         <v>160</v>
       </c>
@@ -14966,7 +14965,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B45" s="166" t="s">
+      <c r="B45" s="165" t="s">
         <v>8</v>
       </c>
       <c r="C45" t="s">
@@ -14989,7 +14988,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B46" s="166"/>
+      <c r="B46" s="165"/>
       <c r="C46" t="s">
         <v>150</v>
       </c>
@@ -15010,7 +15009,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B47" s="166"/>
+      <c r="B47" s="165"/>
       <c r="C47" t="s">
         <v>160</v>
       </c>
@@ -15031,7 +15030,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B48" s="166" t="s">
+      <c r="B48" s="165" t="s">
         <v>9</v>
       </c>
       <c r="C48" t="s">
@@ -15054,7 +15053,7 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B49" s="166"/>
+      <c r="B49" s="165"/>
       <c r="C49" t="s">
         <v>150</v>
       </c>
@@ -15075,7 +15074,7 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B50" s="166"/>
+      <c r="B50" s="165"/>
       <c r="C50" t="s">
         <v>160</v>
       </c>
@@ -15120,6 +15119,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -15130,11 +15134,6 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -17397,414 +17396,414 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" style="135" customWidth="1"/>
-    <col min="2" max="2" width="34.5" style="135" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="14.5" style="135"/>
+    <col min="1" max="1" width="22.6640625" style="134" customWidth="1"/>
+    <col min="2" max="2" width="34.5" style="134" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="14.5" style="134"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="133" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="133" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="135" t="s">
+      <c r="C1" s="134" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="135" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="135" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="141">
+      <c r="B2" s="134" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="140">
         <v>2017</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="137" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="138">
+      <c r="B3" s="136" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="137">
         <v>403678.63899533043</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="137" t="s">
+      <c r="B4" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="138">
+      <c r="C4" s="137">
         <v>81496.890284719615</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="139" t="s">
+      <c r="B5" s="138" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="140" t="s">
+      <c r="C5" s="139" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="137" t="s">
+      <c r="B6" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="138">
+      <c r="C6" s="137">
         <v>95822.941223378162</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="139" t="s">
+      <c r="B7" s="138" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="141">
+      <c r="C7" s="140">
         <v>0.26200000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="136" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="141">
+      <c r="C8" s="140">
         <v>0.32</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="141">
+      <c r="C9" s="140">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="137" t="s">
+      <c r="B10" s="136" t="s">
         <v>173</v>
       </c>
-      <c r="C10" s="142">
+      <c r="C10" s="141">
         <v>0.51600000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="137" t="s">
+      <c r="B11" s="136" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="142">
+      <c r="C11" s="141">
         <v>0.34499999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="137" t="s">
+      <c r="B12" s="136" t="s">
         <v>175</v>
       </c>
-      <c r="C12" s="142"/>
+      <c r="C12" s="141"/>
     </row>
     <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B13" s="135" t="s">
+      <c r="B13" s="134" t="s">
         <v>258</v>
       </c>
-      <c r="C13" s="143">
+      <c r="C13" s="142">
         <v>0.9</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B14" s="135" t="s">
+      <c r="B14" s="134" t="s">
         <v>259</v>
       </c>
-      <c r="C14" s="143">
+      <c r="C14" s="142">
         <v>0.1</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="B15" s="137" t="s">
+      <c r="B15" s="136" t="s">
         <v>260</v>
       </c>
-      <c r="C15" s="144">
+      <c r="C15" s="143">
         <v>0.2</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="137"/>
-      <c r="C16" s="145"/>
+      <c r="B16" s="136"/>
+      <c r="C16" s="144"/>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="139"/>
+      <c r="B17" s="138"/>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="134" t="s">
+      <c r="A18" s="133" t="s">
         <v>105</v>
       </c>
-      <c r="B18" s="134"/>
-      <c r="C18" s="137"/>
+      <c r="B18" s="133"/>
+      <c r="C18" s="136"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="135" t="s">
+      <c r="B19" s="134" t="s">
         <v>267</v>
       </c>
-      <c r="C19" s="141">
+      <c r="C19" s="140">
         <v>5.48</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="146" t="s">
+      <c r="B20" s="145" t="s">
         <v>103</v>
       </c>
-      <c r="C20" s="151" t="s">
+      <c r="C20" s="150" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="146" t="s">
+      <c r="B21" s="145" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="151" t="s">
+      <c r="C21" s="150" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="135" t="s">
+      <c r="B22" s="134" t="s">
         <v>268</v>
       </c>
-      <c r="C22" s="141">
+      <c r="C22" s="140">
         <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="135" t="s">
+      <c r="B23" s="134" t="s">
         <v>269</v>
       </c>
-      <c r="C23" s="141">
+      <c r="C23" s="140">
         <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="134" t="s">
         <v>270</v>
       </c>
-      <c r="C24" s="141">
+      <c r="C24" s="140">
         <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="134" t="s">
+      <c r="A26" s="133" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="134"/>
-      <c r="C26" s="137"/>
+      <c r="B26" s="133"/>
+      <c r="C26" s="136"/>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="139" t="s">
+      <c r="B27" s="138" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="141"/>
+      <c r="C27" s="140"/>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="139" t="s">
+      <c r="B28" s="138" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="154"/>
+      <c r="C28" s="153"/>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="139" t="s">
+      <c r="B29" s="138" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="154"/>
+      <c r="C29" s="153"/>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="139" t="s">
+      <c r="B30" s="138" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="141">
+      <c r="C30" s="140">
         <v>0.88</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="139" t="s">
+      <c r="B31" s="138" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="141"/>
+      <c r="C31" s="140"/>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="139"/>
-      <c r="C32" s="145"/>
+      <c r="B32" s="138"/>
+      <c r="C32" s="144"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="134" t="s">
+      <c r="A34" s="133" t="s">
         <v>101</v>
       </c>
-      <c r="B34" s="147" t="s">
+      <c r="B34" s="146" t="s">
         <v>107</v>
       </c>
-      <c r="C34" s="155">
+      <c r="C34" s="154">
         <v>112151.92977720202</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="147" t="s">
+      <c r="B35" s="146" t="s">
         <v>108</v>
       </c>
-      <c r="C35" s="155">
+      <c r="C35" s="154">
         <v>180283.76829536792</v>
       </c>
-      <c r="D35" s="148"/>
-      <c r="E35" s="148"/>
+      <c r="D35" s="147"/>
+      <c r="E35" s="147"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="147" t="s">
+      <c r="B36" s="146" t="s">
         <v>109</v>
       </c>
-      <c r="C36" s="155">
+      <c r="C36" s="154">
         <v>127057.8029797925</v>
       </c>
-      <c r="D36" s="148"/>
+      <c r="D36" s="147"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="147" t="s">
+      <c r="B37" s="146" t="s">
         <v>110</v>
       </c>
-      <c r="C37" s="155">
+      <c r="C37" s="154">
         <v>79443.144622472115</v>
       </c>
-      <c r="D37" s="148"/>
+      <c r="D37" s="147"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="147"/>
-      <c r="C38" s="150"/>
-      <c r="D38" s="148"/>
+      <c r="B38" s="146"/>
+      <c r="C38" s="149"/>
+      <c r="D38" s="147"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="147"/>
-      <c r="C39" s="150"/>
-      <c r="D39" s="148"/>
+      <c r="B39" s="146"/>
+      <c r="C39" s="149"/>
+      <c r="D39" s="147"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="134" t="s">
+      <c r="A40" s="133" t="s">
         <v>214</v>
       </c>
-      <c r="B40" s="147" t="s">
+      <c r="B40" s="146" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="152">
+      <c r="C40" s="151">
         <f>C34-C46</f>
         <v>99978.081614077935</v>
       </c>
-      <c r="D40" s="148"/>
-      <c r="E40" s="149"/>
+      <c r="D40" s="147"/>
+      <c r="E40" s="148"/>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="147" t="s">
+      <c r="B41" s="146" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="152">
+      <c r="C41" s="151">
         <f t="shared" ref="C41:C43" si="0">C35-C47</f>
         <v>136937.49074485037</v>
       </c>
-      <c r="D41" s="148"/>
-      <c r="E41" s="148"/>
+      <c r="D41" s="147"/>
+      <c r="E41" s="147"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="147" t="s">
+      <c r="B42" s="146" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="152">
+      <c r="C42" s="151">
         <f t="shared" si="0"/>
         <v>95055.338490367838</v>
       </c>
-      <c r="D42" s="148"/>
+      <c r="D42" s="147"/>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="147" t="s">
+      <c r="B43" s="146" t="s">
         <v>110</v>
       </c>
-      <c r="C43" s="152">
+      <c r="C43" s="151">
         <f t="shared" si="0"/>
         <v>71142.793602160236</v>
       </c>
-      <c r="D43" s="148"/>
+      <c r="D43" s="147"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="147"/>
-      <c r="C44" s="150"/>
-      <c r="D44" s="148"/>
+      <c r="B44" s="146"/>
+      <c r="C44" s="149"/>
+      <c r="D44" s="147"/>
     </row>
     <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="147"/>
-      <c r="C45" s="150"/>
+      <c r="B45" s="146"/>
+      <c r="C45" s="149"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="134" t="s">
+      <c r="A46" s="133" t="s">
         <v>215</v>
       </c>
-      <c r="B46" s="147" t="s">
+      <c r="B46" s="146" t="s">
         <v>111</v>
       </c>
-      <c r="C46" s="153">
+      <c r="C46" s="152">
         <f>C52*C$6</f>
         <v>12173.848163124079</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="147" t="s">
+      <c r="B47" s="146" t="s">
         <v>112</v>
       </c>
-      <c r="C47" s="153">
+      <c r="C47" s="152">
         <f t="shared" ref="C47:C49" si="1">C53*C$6</f>
         <v>43346.277550517552</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="147" t="s">
+      <c r="B48" s="146" t="s">
         <v>113</v>
       </c>
-      <c r="C48" s="153">
+      <c r="C48" s="152">
         <f t="shared" si="1"/>
         <v>32002.464489424659</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="147" t="s">
+      <c r="B49" s="146" t="s">
         <v>114</v>
       </c>
-      <c r="C49" s="153">
+      <c r="C49" s="152">
         <f t="shared" si="1"/>
         <v>8300.3510203118713</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="134" t="s">
+      <c r="A52" s="133" t="s">
         <v>99</v>
       </c>
-      <c r="B52" s="147" t="s">
+      <c r="B52" s="146" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="156">
+      <c r="C52" s="155">
         <v>0.12704523580365737</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="147" t="s">
+      <c r="B53" s="146" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="156">
+      <c r="C53" s="155">
         <v>0.4523580365736285</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="147" t="s">
+      <c r="B54" s="146" t="s">
         <v>113</v>
       </c>
-      <c r="C54" s="156">
+      <c r="C54" s="155">
         <v>0.33397497593840231</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="147" t="s">
+      <c r="B55" s="146" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="156">
+      <c r="C55" s="155">
         <v>8.662175168431184E-2</v>
       </c>
     </row>
@@ -19036,50 +19035,50 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" s="162" t="s">
+      <c r="A53" s="161" t="s">
         <v>274</v>
       </c>
-      <c r="B53" s="162" t="s">
+      <c r="B53" s="161" t="s">
         <v>21</v>
       </c>
-      <c r="C53" s="162" t="s">
+      <c r="C53" s="161" t="s">
         <v>98</v>
       </c>
-      <c r="D53" s="164">
+      <c r="D53" s="163">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E53" s="164">
+      <c r="E53" s="163">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F53" s="162">
-        <v>0</v>
-      </c>
-      <c r="G53" s="162">
-        <v>0</v>
-      </c>
-      <c r="H53" s="162">
+      <c r="F53" s="161">
+        <v>0</v>
+      </c>
+      <c r="G53" s="161">
+        <v>0</v>
+      </c>
+      <c r="H53" s="161">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A54" s="162"/>
-      <c r="B54" s="162"/>
-      <c r="C54" s="162" t="s">
+      <c r="A54" s="161"/>
+      <c r="B54" s="161"/>
+      <c r="C54" s="161" t="s">
         <v>62</v>
       </c>
-      <c r="D54" s="164">
+      <c r="D54" s="163">
         <v>0.51</v>
       </c>
-      <c r="E54" s="164">
+      <c r="E54" s="163">
         <v>0.51</v>
       </c>
-      <c r="F54" s="162">
-        <v>0</v>
-      </c>
-      <c r="G54" s="162">
-        <v>0</v>
-      </c>
-      <c r="H54" s="162">
+      <c r="F54" s="161">
+        <v>0</v>
+      </c>
+      <c r="G54" s="161">
+        <v>0</v>
+      </c>
+      <c r="H54" s="161">
         <v>0</v>
       </c>
     </row>
@@ -20146,8 +20145,8 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="162"/>
-      <c r="B14" s="162" t="s">
+      <c r="A14" s="161"/>
+      <c r="B14" s="161" t="s">
         <v>274</v>
       </c>
       <c r="C14" s="97">
@@ -22574,8 +22573,8 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="162"/>
-      <c r="B14" s="162" t="s">
+      <c r="A14" s="161"/>
+      <c r="B14" s="161" t="s">
         <v>274</v>
       </c>
       <c r="C14" s="97">
@@ -24689,7 +24688,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" s="162" t="s">
+      <c r="A41" s="161" t="s">
         <v>274</v>
       </c>
     </row>
@@ -25236,19 +25235,19 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" s="162" t="s">
+      <c r="A52" s="161" t="s">
         <v>274</v>
       </c>
-      <c r="B52" s="162"/>
-      <c r="C52" s="162"/>
-      <c r="D52" s="162"/>
-      <c r="E52" s="162"/>
-      <c r="F52" s="162"/>
-      <c r="G52" s="162"/>
-      <c r="H52" s="162" t="s">
+      <c r="B52" s="161"/>
+      <c r="C52" s="161"/>
+      <c r="D52" s="161"/>
+      <c r="E52" s="161"/>
+      <c r="F52" s="161"/>
+      <c r="G52" s="161"/>
+      <c r="H52" s="161" t="s">
         <v>161</v>
       </c>
-      <c r="I52" s="162" t="s">
+      <c r="I52" s="161" t="s">
         <v>161</v>
       </c>
     </row>
@@ -25561,8 +25560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:D52"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -25636,10 +25635,10 @@
       <c r="B5" s="113">
         <v>0.13</v>
       </c>
-      <c r="C5" s="131">
+      <c r="C5" s="130">
         <v>0.95</v>
       </c>
-      <c r="D5" s="131">
+      <c r="D5" s="130">
         <v>60</v>
       </c>
     </row>
@@ -25665,10 +25664,10 @@
       <c r="B7" s="113">
         <v>0</v>
       </c>
-      <c r="C7" s="130">
+      <c r="C7" s="129">
         <v>0.95</v>
       </c>
-      <c r="D7" s="130">
+      <c r="D7" s="129">
         <f>0.25/((9862402+13370081 )/57310019)</f>
         <v>0.61670139821042802</v>
       </c>
@@ -25904,10 +25903,10 @@
       <c r="B24" s="109">
         <v>0.49299999999999999</v>
       </c>
-      <c r="C24" s="130">
+      <c r="C24" s="129">
         <v>0.95</v>
       </c>
-      <c r="D24" s="130">
+      <c r="D24" s="129">
         <v>2.06</v>
       </c>
     </row>
@@ -25932,10 +25931,10 @@
       <c r="B26" s="113">
         <v>0.80100000000000005</v>
       </c>
-      <c r="C26" s="131">
+      <c r="C26" s="130">
         <v>0.95</v>
       </c>
-      <c r="D26" s="131">
+      <c r="D26" s="130">
         <v>3.78</v>
       </c>
     </row>
@@ -26100,10 +26099,10 @@
       <c r="B38" s="109">
         <v>0.1</v>
       </c>
-      <c r="C38" s="130">
+      <c r="C38" s="129">
         <v>0.95</v>
       </c>
-      <c r="D38" s="130">
+      <c r="D38" s="129">
         <v>4.6500000000000004</v>
       </c>
     </row>
@@ -26114,7 +26113,7 @@
       <c r="B39" s="109">
         <v>0</v>
       </c>
-      <c r="C39" s="130">
+      <c r="C39" s="129">
         <v>0.95</v>
       </c>
       <c r="D39" s="124">
@@ -26129,7 +26128,7 @@
       <c r="B40" s="109">
         <v>0.253</v>
       </c>
-      <c r="C40" s="130">
+      <c r="C40" s="129">
         <v>0.95</v>
       </c>
       <c r="D40" s="124">
@@ -26147,7 +26146,7 @@
       <c r="C41" s="109">
         <v>1</v>
       </c>
-      <c r="D41" s="130">
+      <c r="D41" s="129">
         <v>0.41</v>
       </c>
     </row>
@@ -26228,7 +26227,7 @@
       <c r="B47" s="115">
         <v>0.18099999999999999</v>
       </c>
-      <c r="C47" s="130">
+      <c r="C47" s="129">
         <v>0.95</v>
       </c>
       <c r="D47" s="124">
@@ -26253,10 +26252,10 @@
       <c r="A49" s="108" t="s">
         <v>157</v>
       </c>
-      <c r="B49" s="128">
-        <v>0</v>
-      </c>
-      <c r="C49" s="129">
+      <c r="B49" s="161">
+        <v>4.2699999999999995E-2</v>
+      </c>
+      <c r="C49" s="128">
         <v>0.95</v>
       </c>
       <c r="D49" s="127" t="s">
@@ -26292,16 +26291,16 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="162" t="s">
+      <c r="A52" s="161" t="s">
         <v>274</v>
       </c>
-      <c r="B52" s="164">
-        <v>0</v>
-      </c>
-      <c r="C52" s="165">
+      <c r="B52" s="163">
+        <v>0</v>
+      </c>
+      <c r="C52" s="164">
         <v>0.95</v>
       </c>
-      <c r="D52" s="165">
+      <c r="D52" s="164">
         <v>8.84</v>
       </c>
     </row>
@@ -26919,8 +26918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:P103"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102:C103"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -27939,7 +27938,7 @@
       </c>
       <c r="C96" s="21"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" t="str">
         <f>A96</f>
         <v>IYCF 1</v>
@@ -27947,9 +27946,14 @@
       <c r="B97" s="84" t="s">
         <v>255</v>
       </c>
-      <c r="C97" s="21"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C97" s="21">
+        <v>0</v>
+      </c>
+      <c r="D97" s="161">
+        <v>4.2699999999999995E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" t="str">
         <f>'Programs to include'!A50</f>
         <v>IYCF 2</v>
@@ -27959,7 +27963,7 @@
       </c>
       <c r="C98" s="21"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" t="str">
         <f>A98</f>
         <v>IYCF 2</v>
@@ -27969,7 +27973,7 @@
       </c>
       <c r="C99" s="21"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" t="str">
         <f>'Programs to include'!A51</f>
         <v>IYCF 3</v>
@@ -27979,7 +27983,7 @@
       </c>
       <c r="C100" s="21"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" t="str">
         <f>A100</f>
         <v>IYCF 3</v>
@@ -27989,23 +27993,23 @@
       </c>
       <c r="C101" s="21"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A102" s="162" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A102" s="161" t="s">
         <v>274</v>
       </c>
-      <c r="B102" s="162" t="s">
+      <c r="B102" s="161" t="s">
         <v>254</v>
       </c>
-      <c r="C102" s="165"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A103" s="162" t="s">
+      <c r="C102" s="164"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A103" s="161" t="s">
         <v>274</v>
       </c>
-      <c r="B103" s="162" t="s">
+      <c r="B103" s="161" t="s">
         <v>255</v>
       </c>
-      <c r="C103" s="165"/>
+      <c r="C103" s="164"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28415,10 +28419,10 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="162" t="s">
+      <c r="A52" s="161" t="s">
         <v>274</v>
       </c>
-      <c r="B52" s="162" t="s">
+      <c r="B52" s="161" t="s">
         <v>161</v>
       </c>
     </row>

--- a/input_spreadsheets/Tanzania/regions/InputForCode_Tanga.xlsx
+++ b/input_spreadsheets/Tanzania/regions/InputForCode_Tanga.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/regions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{AF3C7072-12D8-FF41-B7EE-28A9F12CE170}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D75234F7-0A9A-E74E-AB9A-A27FCC29941B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" firstSheet="28" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenditure &amp; budget" sheetId="47" r:id="rId1"/>
@@ -15119,11 +15119,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -15134,6 +15129,11 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -15369,8 +15369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -15484,8 +15484,8 @@
         <f>1.5*0.61</f>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D8">
-        <v>10.49</v>
+      <c r="D8" s="84">
+        <v>3.78</v>
       </c>
       <c r="E8">
         <v>0.05</v>
@@ -15499,8 +15499,8 @@
         <f t="shared" ref="C9:C12" si="0">1.5*0.61</f>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D9">
-        <v>10.49</v>
+      <c r="D9" s="84">
+        <v>2.6225000000000001</v>
       </c>
       <c r="E9">
         <v>0.05</v>
@@ -15514,8 +15514,8 @@
         <f t="shared" si="0"/>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D10">
-        <v>10.49</v>
+      <c r="D10" s="84">
+        <v>2.6225000000000001</v>
       </c>
       <c r="E10">
         <v>0.05</v>
@@ -15529,8 +15529,8 @@
         <f t="shared" si="0"/>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D11">
-        <v>10.49</v>
+      <c r="D11" s="84">
+        <v>2.6225000000000001</v>
       </c>
       <c r="E11">
         <v>0.05</v>
@@ -15544,8 +15544,8 @@
         <f t="shared" si="0"/>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D12">
-        <v>10.49</v>
+      <c r="D12" s="84">
+        <v>2.6225000000000001</v>
       </c>
       <c r="E12">
         <v>0.05</v>
@@ -26918,7 +26918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:P103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+    <sheetView topLeftCell="A81" workbookViewId="0">
       <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
